--- a/data.xlsx
+++ b/data.xlsx
@@ -81,13 +81,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -123,19 +129,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,10 +455,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3">
         <v>45782</v>
       </c>
@@ -465,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3">
         <v>45813</v>
       </c>
@@ -473,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="3">
         <v>45813</v>
       </c>
@@ -481,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3">
         <v>45813</v>
       </c>
@@ -489,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3">
         <v>45935</v>
       </c>
@@ -497,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3">
         <v>45935</v>
       </c>
@@ -505,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3">
         <v>45935</v>
       </c>
@@ -513,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3">
         <v>45935</v>
       </c>
@@ -521,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="3">
         <v>45996</v>
       </c>
@@ -529,7 +538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3">
         <v>45996</v>
       </c>
@@ -537,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -561,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -577,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
